--- a/UserImportURLs.xlsx
+++ b/UserImportURLs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
   <si>
     <t>Base URL:</t>
   </si>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,6 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -772,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +849,9 @@
       <c r="G6" t="s">
         <v>121</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -866,6 +872,9 @@
       <c r="H7" t="s">
         <v>122</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -883,6 +892,12 @@
       <c r="H8" t="s">
         <v>122</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -903,6 +918,9 @@
       <c r="G10" t="s">
         <v>121</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -923,6 +941,9 @@
       <c r="G11" t="s">
         <v>124</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -943,6 +964,7 @@
       <c r="G12" t="s">
         <v>124</v>
       </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -957,6 +979,7 @@
       <c r="G13" t="s">
         <v>124</v>
       </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -974,6 +997,10 @@
       <c r="G14" t="s">
         <v>124</v>
       </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -991,8 +1018,9 @@
       <c r="F16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -1005,8 +1033,9 @@
       <c r="F17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1022,8 +1051,9 @@
       <c r="F18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -1036,8 +1066,9 @@
       <c r="F19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1047,8 +1078,9 @@
       <c r="F20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1090,9 @@
       <c r="F21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -1069,8 +1102,12 @@
       <c r="F22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -1083,8 +1120,9 @@
       <c r="F24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -1100,8 +1138,9 @@
       <c r="F25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1114,8 +1153,9 @@
       <c r="F26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1128,8 +1168,9 @@
       <c r="F27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1180,9 @@
       <c r="F28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -1153,8 +1195,9 @@
       <c r="F29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1207,9 @@
       <c r="F30" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>17</v>
       </c>
@@ -1175,8 +1219,12 @@
       <c r="F31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -1189,8 +1237,9 @@
       <c r="F33" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1200,8 +1249,9 @@
       <c r="F34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>17</v>
       </c>
@@ -1211,8 +1261,12 @@
       <c r="F35" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -1225,8 +1279,9 @@
       <c r="F37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -1239,8 +1294,9 @@
       <c r="F38" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>17</v>
       </c>
@@ -1253,8 +1309,12 @@
       <c r="F39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>12</v>
       </c>
@@ -1267,8 +1327,9 @@
       <c r="F41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1281,8 +1342,9 @@
       <c r="F42" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>17</v>
       </c>
@@ -1295,8 +1357,12 @@
       <c r="F43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1315,8 +1381,11 @@
       <c r="G45" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>11</v>
       </c>
@@ -1335,8 +1404,9 @@
       <c r="G46" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -1352,8 +1422,9 @@
       <c r="G47" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>17</v>
       </c>
@@ -1363,8 +1434,9 @@
       <c r="F48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>11</v>
       </c>
@@ -1374,8 +1446,9 @@
       <c r="F49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>17</v>
       </c>
@@ -1385,8 +1458,12 @@
       <c r="F50" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>11</v>
       </c>
@@ -1402,8 +1479,9 @@
       <c r="F52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -1416,8 +1494,9 @@
       <c r="F53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>17</v>
       </c>
@@ -1427,8 +1506,9 @@
       <c r="F54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>11</v>
       </c>
@@ -1438,8 +1518,9 @@
       <c r="F55" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>17</v>
       </c>
@@ -1449,8 +1530,12 @@
       <c r="F56" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>11</v>
       </c>
@@ -1466,8 +1551,9 @@
       <c r="F58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>11</v>
       </c>
@@ -1480,8 +1566,9 @@
       <c r="F59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>17</v>
       </c>
@@ -1491,8 +1578,9 @@
       <c r="F60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -1502,8 +1590,9 @@
       <c r="F61" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>17</v>
       </c>
@@ -1513,8 +1602,12 @@
       <c r="F62" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1530,8 +1623,9 @@
       <c r="F64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>11</v>
       </c>
@@ -1544,8 +1638,9 @@
       <c r="G65" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>17</v>
       </c>
@@ -1558,8 +1653,12 @@
       <c r="G66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -1575,8 +1674,9 @@
       <c r="F68" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>12</v>
       </c>
@@ -1589,8 +1689,9 @@
       <c r="F69" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -1603,8 +1704,9 @@
       <c r="F70" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>11</v>
       </c>
@@ -1614,8 +1716,9 @@
       <c r="F71" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>11</v>
       </c>
@@ -1625,6 +1728,7 @@
       <c r="F72" t="s">
         <v>119</v>
       </c>
+      <c r="I72" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1660,52 +1764,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE18FB66DAA51F438814FC62671B832F" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88c7f80eca5a8b22e0ba8d343359c654">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b12015e-d264-48dc-9d22-f4372002aca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46c78192244aaf2a36493f5a8ba9a1dc" ns2:_="">
     <xsd:import namespace="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -1870,16 +1928,53 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -1895,15 +1990,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0664E4AD-3565-4F0E-A526-936D3B2C4EF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1921,15 +2017,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1943,4 +2039,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/UserImportURLs.xlsx
+++ b/UserImportURLs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="128">
   <si>
     <t>Base URL:</t>
   </si>
@@ -252,33 +252,6 @@
     <t>Credentials object</t>
   </si>
   <si>
-    <t>/contact/phone/{phone id}/user/{user number}</t>
-  </si>
-  <si>
-    <t>Assign a phone number to a user</t>
-  </si>
-  <si>
-    <t>Remove a phone number from a user</t>
-  </si>
-  <si>
-    <t>/contact/email/{email id}/user/{user number}</t>
-  </si>
-  <si>
-    <t>Assign an email address to a user</t>
-  </si>
-  <si>
-    <t>Remove an email address from a user</t>
-  </si>
-  <si>
-    <t>/contact/street/{street id}/user/{user number}</t>
-  </si>
-  <si>
-    <t>Assign a street address to a user</t>
-  </si>
-  <si>
-    <t>Remove a street address from a user</t>
-  </si>
-  <si>
     <t>https://apps.xactware.com/apps/xa/ws</t>
   </si>
   <si>
@@ -351,9 +324,6 @@
     <t>XN-Specific Operations</t>
   </si>
   <si>
-    <t>/xactNet/axaImport/user/{email address}</t>
-  </si>
-  <si>
     <t>Find or Create user</t>
   </si>
   <si>
@@ -363,15 +333,6 @@
     <t>Update user</t>
   </si>
   <si>
-    <t>/xactNet/axaImport</t>
-  </si>
-  <si>
-    <t>/xactNet/axaImport/start</t>
-  </si>
-  <si>
-    <t>/xactNet/axaImport/end</t>
-  </si>
-  <si>
     <t>Signal the start of the XN user import for AXA</t>
   </si>
   <si>
@@ -394,6 +355,48 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>OL1,OL2,OL3,OL4</t>
+  </si>
+  <si>
+    <t>Partially Written</t>
+  </si>
+  <si>
+    <t>Get the User Type definition</t>
+  </si>
+  <si>
+    <t>/user/example</t>
+  </si>
+  <si>
+    <t>User object documentation</t>
+  </si>
+  <si>
+    <t>UserType object documentation</t>
+  </si>
+  <si>
+    <t>/right/userType/example</t>
+  </si>
+  <si>
+    <t>Role object documentation</t>
+  </si>
+  <si>
+    <t>/xactnet/axaImport/axaUser</t>
+  </si>
+  <si>
+    <t>AXA User object documentation</t>
+  </si>
+  <si>
+    <t>/xactnet/axaImport</t>
+  </si>
+  <si>
+    <t>/xactnet/axaImport/user/{email address}</t>
+  </si>
+  <si>
+    <t>/xactnet/axaImport/start</t>
+  </si>
+  <si>
+    <t>/xactnet/axaImport/end</t>
   </si>
   <si>
     <t>Script Tests</t>
@@ -458,14 +461,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -775,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +791,7 @@
     <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -798,36 +801,36 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>126</v>
+      <c r="G4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,10 +850,10 @@
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -887,17 +890,17 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="5"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -916,10 +919,10 @@
         <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -927,105 +930,120 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I15" s="5"/>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1033,245 +1051,290 @@
       <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F27" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1279,47 +1342,56 @@
       <c r="F37" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
-      </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -1327,213 +1399,234 @@
       <c r="F41" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G42" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
-      </c>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="5"/>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="G52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
-      </c>
-      <c r="I56" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="5"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -1545,13 +1638,13 @@
       <c r="D58" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F58" t="s">
         <v>61</v>
       </c>
-      <c r="I58" s="5"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -1566,7 +1659,7 @@
       <c r="F59" t="s">
         <v>62</v>
       </c>
-      <c r="I59" s="5"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -1578,157 +1671,172 @@
       <c r="F60" t="s">
         <v>63</v>
       </c>
-      <c r="I60" s="5"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="5"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
       <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>17</v>
       </c>
-      <c r="C62" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" t="s">
-        <v>86</v>
-      </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" t="s">
         <v>12</v>
       </c>
-      <c r="C64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" t="s">
         <v>40</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F66" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" t="s">
-        <v>125</v>
-      </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
       <c r="G66" t="s">
-        <v>125</v>
-      </c>
-      <c r="I66" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I67" s="5"/>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" t="s">
+        <v>112</v>
+      </c>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>110</v>
-      </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="I68" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="G68" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" t="s">
-        <v>42</v>
+        <v>124</v>
+      </c>
+      <c r="D69" t="s">
+        <v>103</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
-      </c>
-      <c r="I69" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="G69" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>114</v>
-      </c>
-      <c r="I70" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="G70" t="s">
+        <v>112</v>
+      </c>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
-      </c>
-      <c r="I71" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" t="s">
-        <v>117</v>
-      </c>
-      <c r="F72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I72" s="5"/>
+      <c r="I72" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1764,6 +1872,52 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE18FB66DAA51F438814FC62671B832F" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88c7f80eca5a8b22e0ba8d343359c654">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b12015e-d264-48dc-9d22-f4372002aca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46c78192244aaf2a36493f5a8ba9a1dc" ns2:_="">
     <xsd:import namespace="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -1928,53 +2082,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -1990,16 +2107,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0664E4AD-3565-4F0E-A526-936D3B2C4EF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2017,34 +2133,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9b12015e-d264-48dc-9d22-f4372002aca2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b12015e-d264-48dc-9d22-f4372002aca2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/UserImportURLs.xlsx
+++ b/UserImportURLs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
   <si>
     <t>Base URL:</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>/xactnet/axaImport/end</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Script Tests</t>
@@ -776,9 +779,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
@@ -790,8 +793,8 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -830,7 +833,7 @@
         <v>110</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -852,6 +855,9 @@
       <c r="G6" t="s">
         <v>108</v>
       </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
       <c r="I6" s="7" t="s">
         <v>108</v>
       </c>
@@ -921,6 +927,9 @@
       <c r="G10" t="s">
         <v>108</v>
       </c>
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
       <c r="I10" s="7" t="s">
         <v>108</v>
       </c>
@@ -941,6 +950,9 @@
       <c r="G11" t="s">
         <v>112</v>
       </c>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
       <c r="I11" s="7" t="s">
         <v>108</v>
       </c>
@@ -1054,6 +1066,9 @@
       <c r="G17" t="s">
         <v>112</v>
       </c>
+      <c r="H17" t="s">
+        <v>127</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,6 +1087,9 @@
       <c r="G18" t="s">
         <v>112</v>
       </c>
+      <c r="H18" t="s">
+        <v>127</v>
+      </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1090,6 +1108,9 @@
       <c r="G19" t="s">
         <v>112</v>
       </c>
+      <c r="H19" t="s">
+        <v>127</v>
+      </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1109,7 +1130,10 @@
         <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -1160,7 +1184,10 @@
         <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
       </c>
       <c r="I23" s="7"/>
     </row>
@@ -1175,7 +1202,10 @@
         <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
       </c>
       <c r="I24" s="7"/>
     </row>
@@ -1190,7 +1220,10 @@
         <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
       </c>
       <c r="I25" s="7"/>
     </row>
@@ -1210,6 +1243,9 @@
       <c r="F27" t="s">
         <v>73</v>
       </c>
+      <c r="H27" t="s">
+        <v>127</v>
+      </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1243,6 +1279,9 @@
       <c r="F29" t="s">
         <v>120</v>
       </c>
+      <c r="H29" t="s">
+        <v>127</v>
+      </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1345,6 +1384,9 @@
       <c r="G37" t="s">
         <v>112</v>
       </c>
+      <c r="H37" t="s">
+        <v>127</v>
+      </c>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1402,6 +1444,9 @@
       <c r="G41" t="s">
         <v>112</v>
       </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1459,6 +1504,9 @@
       <c r="G45" t="s">
         <v>112</v>
       </c>
+      <c r="H45" t="s">
+        <v>127</v>
+      </c>
       <c r="I45" s="7" t="s">
         <v>108</v>
       </c>
@@ -1521,6 +1569,9 @@
       <c r="G49" t="s">
         <v>111</v>
       </c>
+      <c r="H49" t="s">
+        <v>127</v>
+      </c>
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1693,7 +1744,10 @@
         <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="H62" t="s">
+        <v>127</v>
       </c>
       <c r="I62" s="7"/>
     </row>
@@ -1708,7 +1762,10 @@
         <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="H63" t="s">
+        <v>114</v>
       </c>
       <c r="I63" s="7"/>
     </row>
@@ -1723,7 +1780,10 @@
         <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="H64" t="s">
+        <v>114</v>
       </c>
       <c r="I64" s="7"/>
     </row>
@@ -1749,6 +1809,9 @@
       <c r="G66" t="s">
         <v>111</v>
       </c>
+      <c r="H66" t="s">
+        <v>127</v>
+      </c>
       <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -1767,6 +1830,9 @@
       <c r="G67" t="s">
         <v>112</v>
       </c>
+      <c r="H67" t="s">
+        <v>127</v>
+      </c>
       <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -1834,9 +1900,6 @@
         <v>112</v>
       </c>
       <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I72" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1872,52 +1935,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE18FB66DAA51F438814FC62671B832F" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88c7f80eca5a8b22e0ba8d343359c654">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b12015e-d264-48dc-9d22-f4372002aca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46c78192244aaf2a36493f5a8ba9a1dc" ns2:_="">
     <xsd:import namespace="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -2082,16 +2099,53 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -2107,15 +2161,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0664E4AD-3565-4F0E-A526-936D3B2C4EF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2133,26 +2188,34 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9b12015e-d264-48dc-9d22-f4372002aca2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b12015e-d264-48dc-9d22-f4372002aca2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/UserImportURLs.xlsx
+++ b/UserImportURLs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
   <si>
     <t>Base URL:</t>
   </si>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +979,9 @@
       <c r="H12" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1572,7 +1574,9 @@
       <c r="H49" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="7"/>
+      <c r="I49" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -1935,6 +1939,52 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE18FB66DAA51F438814FC62671B832F" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88c7f80eca5a8b22e0ba8d343359c654">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b12015e-d264-48dc-9d22-f4372002aca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46c78192244aaf2a36493f5a8ba9a1dc" ns2:_="">
     <xsd:import namespace="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -2099,53 +2149,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -2161,16 +2174,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0664E4AD-3565-4F0E-A526-936D3B2C4EF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2188,15 +2200,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2210,12 +2222,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/UserImportURLs.xlsx
+++ b/UserImportURLs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="130">
   <si>
     <t>Base URL:</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Not Written</t>
-  </si>
-  <si>
     <t>Unit Tests</t>
   </si>
   <si>
@@ -402,7 +399,13 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Script Tests</t>
+    <t>/right/role/example</t>
+  </si>
+  <si>
+    <t>Test Scripts</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -781,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +797,7 @@
     <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -830,9 +833,9 @@
         <v>107</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -856,10 +859,10 @@
         <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,10 +882,10 @@
         <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,15 +901,9 @@
       <c r="G8" t="s">
         <v>108</v>
       </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -928,10 +925,10 @@
         <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,22 +936,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -974,13 +968,10 @@
         <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1000,12 +991,11 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1018,12 +1008,11 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1039,15 +1028,11 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I16" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1066,12 +1051,11 @@
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="7"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1087,33 +1071,31 @@
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="7"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1132,12 +1114,14 @@
         <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1150,12 +1134,17 @@
         <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1171,9 +1160,14 @@
         <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1186,12 +1180,14 @@
         <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1204,12 +1200,14 @@
         <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1222,15 +1220,14 @@
         <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -1245,10 +1242,12 @@
       <c r="F27" t="s">
         <v>73</v>
       </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
       <c r="H27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="7"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -1266,25 +1265,29 @@
       <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="G28" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="G29" t="s">
+        <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="7"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1299,7 +1302,9 @@
       <c r="F30" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="G30" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1314,7 +1319,9 @@
       <c r="F31" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1326,9 +1333,11 @@
       <c r="F32" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -1341,9 +1350,11 @@
       <c r="F33" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1353,9 +1364,11 @@
       <c r="F34" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>17</v>
       </c>
@@ -1365,12 +1378,11 @@
       <c r="F35" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -1384,14 +1396,13 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -1399,17 +1410,19 @@
         <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
         <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>17</v>
       </c>
@@ -1417,20 +1430,19 @@
         <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
         <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
-      </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1444,14 +1456,13 @@
         <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1465,11 +1476,13 @@
         <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>17</v>
       </c>
@@ -1483,14 +1496,13 @@
         <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>112</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>12</v>
       </c>
@@ -1504,16 +1516,13 @@
         <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>11</v>
       </c>
@@ -1527,11 +1536,13 @@
         <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>112</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>17</v>
       </c>
@@ -1545,12 +1556,11 @@
         <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>112</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I48" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1569,13 +1579,13 @@
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1595,9 +1605,8 @@
         <v>47</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="7"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -1613,9 +1622,8 @@
         <v>48</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="7"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -1628,12 +1636,8 @@
         <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="7"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -1651,7 +1655,9 @@
       <c r="F54" t="s">
         <v>54</v>
       </c>
-      <c r="I54" s="7"/>
+      <c r="G54" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -1666,7 +1672,9 @@
       <c r="F55" t="s">
         <v>55</v>
       </c>
-      <c r="I55" s="7"/>
+      <c r="G55" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -1678,10 +1686,9 @@
       <c r="F56" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="7"/>
+      <c r="G56" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -1699,7 +1706,9 @@
       <c r="F58" t="s">
         <v>61</v>
       </c>
-      <c r="I58" s="7"/>
+      <c r="G58" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -1714,7 +1723,9 @@
       <c r="F59" t="s">
         <v>62</v>
       </c>
-      <c r="I59" s="7"/>
+      <c r="G59" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -1726,10 +1737,9 @@
       <c r="F60" t="s">
         <v>63</v>
       </c>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I61" s="7"/>
+      <c r="G60" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1751,9 +1761,11 @@
         <v>108</v>
       </c>
       <c r="H62" t="s">
-        <v>127</v>
-      </c>
-      <c r="I62" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -1769,9 +1781,11 @@
         <v>108</v>
       </c>
       <c r="H63" t="s">
-        <v>114</v>
-      </c>
-      <c r="I63" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -1787,14 +1801,13 @@
         <v>108</v>
       </c>
       <c r="H64" t="s">
-        <v>114</v>
-      </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -1802,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
         <v>40</v>
@@ -1811,40 +1824,38 @@
         <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H66" t="s">
-        <v>127</v>
-      </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
         <v>103</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H67" t="s">
-        <v>127</v>
-      </c>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" t="s">
         <v>42</v>
@@ -1853,16 +1864,15 @@
         <v>102</v>
       </c>
       <c r="G68" t="s">
-        <v>112</v>
-      </c>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
         <v>103</v>
@@ -1871,39 +1881,36 @@
         <v>104</v>
       </c>
       <c r="G69" t="s">
-        <v>112</v>
-      </c>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" t="s">
         <v>105</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
-      </c>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
         <v>106</v>
       </c>
       <c r="G71" t="s">
-        <v>112</v>
-      </c>
-      <c r="I71" s="7"/>
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2211,14 +2218,14 @@
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9b12015e-d264-48dc-9d22-f4372002aca2"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9b12015e-d264-48dc-9d22-f4372002aca2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/UserImportURLs.xlsx
+++ b/UserImportURLs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
   <si>
     <t>Base URL:</t>
   </si>
@@ -240,12 +240,6 @@
     <t>Get documentation</t>
   </si>
   <si>
-    <t>org1, org2…org7</t>
-  </si>
-  <si>
-    <t>org1, org2…org4</t>
-  </si>
-  <si>
     <t>Search for a user</t>
   </si>
   <si>
@@ -294,27 +288,18 @@
     <t>Remove role from a user type</t>
   </si>
   <si>
-    <t>/right/dataset/{dataset id}/userType/{user type ID}</t>
-  </si>
-  <si>
     <t>Assign a dataset to a user type</t>
   </si>
   <si>
     <t>Remove a dataset from a user type</t>
   </si>
   <si>
-    <t>/right/org/{company id}/userType/{user type ID}</t>
-  </si>
-  <si>
     <t>Assign an organization right to a user type</t>
   </si>
   <si>
     <t>Remove an org right from a user type</t>
   </si>
   <si>
-    <t>/right/specific/{company id}/{app}/{right code}/userType/{user type ID}</t>
-  </si>
-  <si>
     <t>Assign a company-specific right to a user type</t>
   </si>
   <si>
@@ -324,15 +309,9 @@
     <t>XN-Specific Operations</t>
   </si>
   <si>
-    <t>Find or Create user</t>
-  </si>
-  <si>
     <t>AXA User</t>
   </si>
   <si>
-    <t>Update user</t>
-  </si>
-  <si>
     <t>Signal the start of the XN user import for AXA</t>
   </si>
   <si>
@@ -354,12 +333,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>OL1,OL2,OL3,OL4</t>
-  </si>
-  <si>
-    <t>Partially Written</t>
-  </si>
-  <si>
     <t>Get the User Type definition</t>
   </si>
   <si>
@@ -387,9 +360,6 @@
     <t>/xactnet/axaImport</t>
   </si>
   <si>
-    <t>/xactnet/axaImport/user/{email address}</t>
-  </si>
-  <si>
     <t>/xactnet/axaImport/start</t>
   </si>
   <si>
@@ -402,10 +372,55 @@
     <t>/right/role/example</t>
   </si>
   <si>
+    <t>/xactnet/axaImport/import</t>
+  </si>
+  <si>
+    <t>Imports an AXA user</t>
+  </si>
+  <si>
+    <t>/right/dataset/{dataset id}/userType/{user type ID}/update</t>
+  </si>
+  <si>
+    <t>/right/dataset/{dataset id}/userType/{user type ID}/remove</t>
+  </si>
+  <si>
+    <t>OrgRights object</t>
+  </si>
+  <si>
+    <t>DatasetRights object</t>
+  </si>
+  <si>
+    <t>/right/org/{company id}/userType/{user type ID}/remove</t>
+  </si>
+  <si>
+    <t>/right/org/{company id}/userType/{user type ID}/update</t>
+  </si>
+  <si>
+    <t>/right/specific/{company id}/{app}/{right code}/userType/{user type ID}/update</t>
+  </si>
+  <si>
+    <t>/right/specific/{company id}/{app}/{right code}/userType/{user type ID}/remove</t>
+  </si>
+  <si>
+    <t>CoSpecificRight object</t>
+  </si>
+  <si>
+    <t>/right/dataset/example</t>
+  </si>
+  <si>
+    <t>/right/org/example</t>
+  </si>
+  <si>
+    <t>/right/specific/example</t>
+  </si>
+  <si>
     <t>Test Scripts</t>
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -467,19 +482,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,22 +792,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.85546875" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -807,7 +818,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -830,13 +841,13 @@
         <v>64</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -856,13 +867,13 @@
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,19 +884,19 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -899,10 +910,10 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -922,13 +933,13 @@
         <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,19 +947,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" t="s">
-        <v>126</v>
+      <c r="I11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -965,13 +979,13 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -991,10 +1005,10 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1008,10 +1022,10 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,10 +1042,10 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1051,10 +1065,10 @@
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1062,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -1071,10 +1085,13 @@
         <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>116</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1082,19 +1099,22 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>116</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1102,25 +1122,25 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
         <v>82</v>
       </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1128,22 +1148,22 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1151,22 +1171,22 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,19 +1194,19 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="I23" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1194,19 +1214,19 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1214,19 +1234,19 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="I25" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1243,50 +1263,50 @@
         <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1320,7 +1340,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1334,10 +1354,10 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -1351,38 +1371,38 @@
         <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
         <v>89</v>
       </c>
-      <c r="F35" t="s">
-        <v>91</v>
-      </c>
       <c r="G35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -1396,247 +1416,282 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" t="s">
         <v>94</v>
       </c>
-      <c r="G39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" t="s">
-        <v>110</v>
-      </c>
-      <c r="H46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" t="s">
-        <v>73</v>
-      </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="I49" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>43</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>44</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E53" t="s">
         <v>45</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>47</v>
       </c>
-      <c r="G50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" t="s">
-        <v>110</v>
+      <c r="G53" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1644,50 +1699,50 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" t="s">
-        <v>111</v>
+      <c r="E57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -1695,221 +1750,238 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D62" t="s">
         <v>59</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F62" t="s">
         <v>62</v>
       </c>
-      <c r="G59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" t="s">
-        <v>73</v>
-      </c>
       <c r="G62" t="s">
-        <v>108</v>
-      </c>
-      <c r="H62" t="s">
-        <v>126</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C66" t="s">
         <v>67</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F66" t="s">
         <v>68</v>
       </c>
-      <c r="G63" t="s">
-        <v>108</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" t="s">
+        <v>104</v>
+      </c>
+      <c r="I67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
         <v>113</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" t="s">
-        <v>113</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" t="s">
+        <v>116</v>
+      </c>
+      <c r="I69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>12</v>
       </c>
-      <c r="C66" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s">
-        <v>110</v>
-      </c>
-      <c r="H66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67" t="s">
-        <v>121</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="C70" t="s">
         <v>111</v>
       </c>
-      <c r="H67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" t="s">
-        <v>102</v>
-      </c>
-      <c r="G68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" t="s">
-        <v>104</v>
-      </c>
-      <c r="G69" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
-        <v>124</v>
+      <c r="E70" t="s">
+        <v>97</v>
       </c>
       <c r="F70" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="H70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
       </c>
       <c r="F71" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1946,52 +2018,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE18FB66DAA51F438814FC62671B832F" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88c7f80eca5a8b22e0ba8d343359c654">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b12015e-d264-48dc-9d22-f4372002aca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46c78192244aaf2a36493f5a8ba9a1dc" ns2:_="">
     <xsd:import namespace="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -2156,16 +2182,53 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -2181,15 +2244,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0664E4AD-3565-4F0E-A526-936D3B2C4EF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2207,26 +2271,34 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9b12015e-d264-48dc-9d22-f4372002aca2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9b12015e-d264-48dc-9d22-f4372002aca2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/UserImportURLs.xlsx
+++ b/UserImportURLs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="135">
   <si>
     <t>Base URL:</t>
   </si>
@@ -795,8 +795,8 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,6 +1268,9 @@
       <c r="H27" t="s">
         <v>116</v>
       </c>
+      <c r="I27" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -1288,6 +1291,9 @@
       <c r="H28" t="s">
         <v>116</v>
       </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1308,6 +1314,9 @@
       <c r="G29" t="s">
         <v>104</v>
       </c>
+      <c r="I29" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1325,6 +1334,9 @@
       <c r="G30" t="s">
         <v>104</v>
       </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1342,6 +1354,9 @@
       <c r="G31" t="s">
         <v>104</v>
       </c>
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1387,6 +1402,9 @@
       <c r="G34" t="s">
         <v>104</v>
       </c>
+      <c r="I34" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -1401,6 +1419,9 @@
       <c r="G35" t="s">
         <v>104</v>
       </c>
+      <c r="I35" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -1459,7 +1480,7 @@
         <v>104</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1482,7 +1503,7 @@
         <v>104</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1673,6 +1694,9 @@
       <c r="H52" t="s">
         <v>116</v>
       </c>
+      <c r="I52" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -1693,6 +1717,9 @@
       <c r="G53" t="s">
         <v>103</v>
       </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -1743,6 +1770,9 @@
       </c>
       <c r="G57" t="s">
         <v>104</v>
+      </c>
+      <c r="I57" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,6 +2048,52 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE18FB66DAA51F438814FC62671B832F" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88c7f80eca5a8b22e0ba8d343359c654">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b12015e-d264-48dc-9d22-f4372002aca2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46c78192244aaf2a36493f5a8ba9a1dc" ns2:_="">
     <xsd:import namespace="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -2182,53 +2258,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9b12015e-d264-48dc-9d22-f4372002aca2"/>
@@ -2244,16 +2283,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0664E4AD-3565-4F0E-A526-936D3B2C4EF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2271,15 +2309,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51CB7F11-F939-4D6F-B6F0-5CEFE5772C64}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A74783-91BB-4C12-870D-64739AC08013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2293,12 +2331,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06D7A72-367C-4EBB-8CD9-01AF02A4CE5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>